--- a/Base/Backlog_29.xlsx
+++ b/Base/Backlog_29.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C8B3A9-5939-40D1-B353-C04B0D84BBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04596587-FA45-465F-963C-13C9FCA1B2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="SPN" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ITI!$A$1:$J$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SPN!$A$1:$J$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ITI!$A$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SPN!$A$1:$J$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="28">
   <si>
     <t>Backlog</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Denis da Silva</t>
+  </si>
+  <si>
+    <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Arthur Hassuma</t>
   </si>
 </sst>
 </file>
@@ -203,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -233,12 +239,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,10 +631,10 @@
       <c r="D2" s="11">
         <v>29</v>
       </c>
-      <c r="E2" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F2" s="13">
         <v>45862</v>
       </c>
       <c r="G2" s="11">
@@ -643,11 +643,11 @@
       <c r="H2" s="12">
         <v>45839</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="13">
         <v>45859</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>11</v>
@@ -666,10 +666,10 @@
       <c r="D3" s="11">
         <v>29</v>
       </c>
-      <c r="E3" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="E3" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F3" s="13">
         <v>45862</v>
       </c>
       <c r="G3" s="11">
@@ -678,7 +678,7 @@
       <c r="H3" s="12">
         <v>45839</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <v>45859</v>
       </c>
       <c r="J3" s="11" t="s">
@@ -701,10 +701,10 @@
       <c r="D4" s="11">
         <v>29</v>
       </c>
-      <c r="E4" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F4" s="13">
         <v>45862</v>
       </c>
       <c r="G4" s="11">
@@ -713,7 +713,7 @@
       <c r="H4" s="12">
         <v>45839</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>45859</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -736,10 +736,10 @@
       <c r="D5" s="11">
         <v>29</v>
       </c>
-      <c r="E5" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="E5" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F5" s="13">
         <v>45862</v>
       </c>
       <c r="G5" s="11">
@@ -748,7 +748,7 @@
       <c r="H5" s="12">
         <v>45809</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <v>45859</v>
       </c>
       <c r="J5" s="11" t="s">
@@ -771,19 +771,19 @@
       <c r="D6" s="11">
         <v>29</v>
       </c>
-      <c r="E6" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F6" s="13">
         <v>45862</v>
       </c>
       <c r="G6" s="11">
-        <v>340212</v>
+        <v>339644</v>
       </c>
       <c r="H6" s="12">
         <v>45839</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="13">
         <v>45859</v>
       </c>
       <c r="J6" s="11" t="s">
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11">
         <v>2025</v>
@@ -806,19 +806,19 @@
       <c r="D7" s="11">
         <v>29</v>
       </c>
-      <c r="E7" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F7" s="13">
         <v>45862</v>
       </c>
       <c r="G7" s="11">
-        <v>339644</v>
+        <v>339509</v>
       </c>
       <c r="H7" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I7" s="15">
+        <v>45809</v>
+      </c>
+      <c r="I7" s="13">
         <v>45859</v>
       </c>
       <c r="J7" s="11" t="s">
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" s="11">
         <v>2025</v>
@@ -841,23 +841,23 @@
       <c r="D8" s="11">
         <v>29</v>
       </c>
-      <c r="E8" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="E8" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F8" s="13">
         <v>45862</v>
       </c>
       <c r="G8" s="11">
-        <v>339509</v>
+        <v>341457</v>
       </c>
       <c r="H8" s="12">
-        <v>45809</v>
-      </c>
-      <c r="I8" s="15">
+        <v>45839</v>
+      </c>
+      <c r="I8" s="13">
         <v>45859</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>11</v>
@@ -876,23 +876,23 @@
       <c r="D9" s="11">
         <v>29</v>
       </c>
-      <c r="E9" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="E9" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F9" s="13">
         <v>45862</v>
       </c>
       <c r="G9" s="11">
-        <v>341457</v>
+        <v>341757</v>
       </c>
       <c r="H9" s="12">
         <v>45839</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="13">
         <v>45859</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>11</v>
@@ -911,19 +911,19 @@
       <c r="D10" s="11">
         <v>29</v>
       </c>
-      <c r="E10" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="E10" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F10" s="13">
         <v>45862</v>
       </c>
       <c r="G10" s="11">
-        <v>341757</v>
+        <v>339846</v>
       </c>
       <c r="H10" s="12">
         <v>45839</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="13">
         <v>45859</v>
       </c>
       <c r="J10" s="11" t="s">
@@ -946,19 +946,19 @@
       <c r="D11" s="11">
         <v>29</v>
       </c>
-      <c r="E11" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="E11" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F11" s="13">
         <v>45862</v>
       </c>
       <c r="G11" s="11">
-        <v>339846</v>
+        <v>340886</v>
       </c>
       <c r="H11" s="12">
         <v>45839</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="13">
         <v>45859</v>
       </c>
       <c r="J11" s="11" t="s">
@@ -981,23 +981,23 @@
       <c r="D12" s="11">
         <v>29</v>
       </c>
-      <c r="E12" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="E12" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F12" s="13">
         <v>45862</v>
       </c>
       <c r="G12" s="11">
-        <v>340886</v>
+        <v>341454</v>
       </c>
       <c r="H12" s="12">
         <v>45839</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="13">
         <v>45859</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>11</v>
@@ -1016,23 +1016,23 @@
       <c r="D13" s="11">
         <v>29</v>
       </c>
-      <c r="E13" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="E13" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F13" s="13">
         <v>45862</v>
       </c>
       <c r="G13" s="11">
-        <v>341454</v>
+        <v>341497</v>
       </c>
       <c r="H13" s="12">
         <v>45839</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <v>45859</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>11</v>
@@ -1051,23 +1051,23 @@
       <c r="D14" s="11">
         <v>29</v>
       </c>
-      <c r="E14" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="E14" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F14" s="13">
         <v>45862</v>
       </c>
       <c r="G14" s="11">
-        <v>341497</v>
+        <v>341518</v>
       </c>
       <c r="H14" s="12">
         <v>45839</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="13">
         <v>45859</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>11</v>
@@ -1086,19 +1086,19 @@
       <c r="D15" s="11">
         <v>29</v>
       </c>
-      <c r="E15" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="E15" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F15" s="13">
         <v>45862</v>
       </c>
       <c r="G15" s="11">
-        <v>341518</v>
+        <v>340589</v>
       </c>
       <c r="H15" s="12">
         <v>45839</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="13">
         <v>45859</v>
       </c>
       <c r="J15" s="11" t="s">
@@ -1109,39 +1109,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2025</v>
-      </c>
-      <c r="D16" s="11">
-        <v>29</v>
-      </c>
-      <c r="E16" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F16" s="15">
-        <v>45862</v>
-      </c>
-      <c r="G16" s="11">
-        <v>340589</v>
-      </c>
-      <c r="H16" s="12">
-        <v>45839</v>
-      </c>
-      <c r="I16" s="15">
-        <v>45859</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E17" s="8"/>
@@ -1236,12 +1208,13 @@
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="F30" s="6"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
       <c r="E31" s="8"/>
       <c r="F31" s="6"/>
       <c r="H31" s="2"/>
@@ -1258,7 +1231,7 @@
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="H33" s="2"/>
       <c r="I33" s="6"/>
@@ -1269,21 +1242,20 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="6"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="H35" s="2"/>
-      <c r="J35" s="3"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
     </row>
@@ -1303,7 +1275,6 @@
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
-      <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="7"/>
@@ -1327,7 +1298,6 @@
       <c r="J42" s="7"/>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="3"/>
       <c r="F43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="7"/>
@@ -1340,7 +1310,6 @@
     <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="7"/>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F46" s="6"/>
@@ -1378,14 +1347,10 @@
       <c r="F54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J30" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
-      <sortCondition ref="B1:B30"/>
+  <autoFilter ref="A1:J29" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J29">
+      <sortCondition ref="B1:B29"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1396,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1457,8 +1422,8 @@
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>25</v>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="11">
         <v>2025</v>
@@ -1466,22 +1431,22 @@
       <c r="D2" s="11">
         <v>29</v>
       </c>
-      <c r="E2" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F2" s="15">
+      <c r="E2" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F2" s="13">
         <v>45862</v>
       </c>
       <c r="G2" s="11">
-        <v>340526</v>
-      </c>
-      <c r="H2" s="13">
+        <v>340212</v>
+      </c>
+      <c r="H2" s="12">
         <v>45839</v>
       </c>
-      <c r="I2" s="15">
-        <v>45859</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="13">
+        <v>45859</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="11" t="s">
@@ -1492,8 +1457,8 @@
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>21</v>
+      <c r="B3" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="11">
         <v>2025</v>
@@ -1501,23 +1466,23 @@
       <c r="D3" s="11">
         <v>29</v>
       </c>
-      <c r="E3" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="E3" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F3" s="13">
         <v>45862</v>
       </c>
       <c r="G3" s="11">
-        <v>341230</v>
-      </c>
-      <c r="H3" s="13">
+        <v>340526</v>
+      </c>
+      <c r="H3" s="12">
         <v>45839</v>
       </c>
-      <c r="I3" s="15">
-        <v>45859</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>12</v>
+      <c r="I3" s="13">
+        <v>45859</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>15</v>
@@ -1527,8 +1492,8 @@
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>20</v>
+      <c r="B4" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="C4" s="11">
         <v>2025</v>
@@ -1536,34 +1501,34 @@
       <c r="D4" s="11">
         <v>29</v>
       </c>
-      <c r="E4" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F4" s="13">
         <v>45862</v>
       </c>
       <c r="G4" s="11">
-        <v>338247</v>
-      </c>
-      <c r="H4" s="13">
-        <v>45809</v>
-      </c>
-      <c r="I4" s="15">
-        <v>45859</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>12</v>
+        <v>341230</v>
+      </c>
+      <c r="H4" s="12">
+        <v>45839</v>
+      </c>
+      <c r="I4" s="13">
+        <v>45859</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>22</v>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="11">
         <v>2025</v>
@@ -1571,23 +1536,23 @@
       <c r="D5" s="11">
         <v>29</v>
       </c>
-      <c r="E5" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="E5" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F5" s="13">
         <v>45862</v>
       </c>
       <c r="G5" s="11">
-        <v>341308</v>
-      </c>
-      <c r="H5" s="13">
-        <v>45839</v>
-      </c>
-      <c r="I5" s="15">
-        <v>45859</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>12</v>
+        <v>338247</v>
+      </c>
+      <c r="H5" s="12">
+        <v>45809</v>
+      </c>
+      <c r="I5" s="13">
+        <v>45859</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>15</v>
@@ -1606,29 +1571,29 @@
       <c r="D6" s="11">
         <v>29</v>
       </c>
-      <c r="E6" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F6" s="13">
         <v>45862</v>
       </c>
       <c r="G6" s="11">
-        <v>339925</v>
-      </c>
-      <c r="H6" s="13">
+        <v>341308</v>
+      </c>
+      <c r="H6" s="12">
         <v>45839</v>
       </c>
-      <c r="I6" s="15">
-        <v>45859</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>12</v>
+      <c r="I6" s="13">
+        <v>45859</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
@@ -1641,109 +1606,139 @@
       <c r="D7" s="11">
         <v>29</v>
       </c>
-      <c r="E7" s="15">
-        <v>45859</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F7" s="13">
         <v>45862</v>
       </c>
       <c r="G7" s="11">
-        <v>340010</v>
-      </c>
-      <c r="H7" s="13">
+        <v>339925</v>
+      </c>
+      <c r="H7" s="12">
         <v>45839</v>
       </c>
-      <c r="I7" s="15">
-        <v>45859</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>12</v>
+      <c r="I7" s="13">
+        <v>45859</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="11">
+        <v>29</v>
+      </c>
+      <c r="E8" s="13">
+        <v>45859</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45862</v>
+      </c>
+      <c r="G8" s="11">
+        <v>340010</v>
+      </c>
+      <c r="H8" s="12">
+        <v>45839</v>
+      </c>
+      <c r="I8" s="13">
+        <v>45859</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="H9" s="14"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="H14" s="14"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="H16" s="14"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="H17" s="14"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
@@ -1753,11 +1748,10 @@
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="8"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
       <c r="E24" s="8"/>
       <c r="F24" s="6"/>
       <c r="I24" s="8"/>
@@ -1770,9 +1764,9 @@
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
@@ -1806,7 +1800,9 @@
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
@@ -1821,6 +1817,7 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.25">
@@ -1856,8 +1853,11 @@
     <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F47" s="6"/>
     </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J6" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
+  <autoFilter ref="A1:J7" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Base/Backlog_29.xlsx
+++ b/Base/Backlog_29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04596587-FA45-465F-963C-13C9FCA1B2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE88FF-E815-4EC5-AF3F-CB348B228362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1363,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Base/Backlog_29.xlsx
+++ b/Base/Backlog_29.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE88FF-E815-4EC5-AF3F-CB348B228362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37354D5-DDA1-4C9D-AAD4-3F6333BA4D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Kleberson Matias</t>
   </si>
   <si>
-    <t>Higor Pratz</t>
-  </si>
-  <si>
     <t>Mava Neves</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Arthur Hassuma</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
   </si>
 </sst>
 </file>
@@ -174,15 +174,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,11 +211,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +266,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,7 +671,7 @@
         <v>45859</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>11</v>
@@ -658,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11">
         <v>2025</v>
@@ -798,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="11">
         <v>2025</v>
@@ -857,7 +881,7 @@
         <v>45859</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>11</v>
@@ -892,7 +916,7 @@
         <v>45859</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>11</v>
@@ -997,7 +1021,7 @@
         <v>45859</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>11</v>
@@ -1032,7 +1056,7 @@
         <v>45859</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>11</v>
@@ -1067,7 +1091,7 @@
         <v>45859</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>11</v>
@@ -1364,7 +1388,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1423,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="11">
         <v>2025</v>
@@ -1458,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="11">
         <v>2025</v>
@@ -1482,7 +1506,7 @@
         <v>45859</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>15</v>
@@ -1492,8 +1516,8 @@
       <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>21</v>
+      <c r="B4" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="11">
         <v>2025</v>
@@ -1517,7 +1541,7 @@
         <v>45859</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>15</v>
@@ -1552,7 +1576,7 @@
         <v>45859</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>15</v>
@@ -1563,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11">
         <v>2025</v>
@@ -1587,7 +1611,7 @@
         <v>45859</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>15</v>
@@ -1598,7 +1622,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="11">
         <v>2025</v>
@@ -1622,7 +1646,7 @@
         <v>45859</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>15</v>
@@ -1633,7 +1657,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="11">
         <v>2025</v>
@@ -1657,7 +1681,7 @@
         <v>45859</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>15</v>
